--- a/uploads/Chetna_Shetty_002_extracted_data.xlsx
+++ b/uploads/Chetna_Shetty_002_extracted_data.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[{'degree': 'PGDBA MBA HR', 'university': "Welingkar's College", 'tier': 'Tier 1'}, {'degree': 'Bachelor of Commerce', 'university': 'Royal College', 'tier': 'Tier 2'}, {'degree': 'Higher Secondary Examination', 'university': 'Royal College', 'tier': 'Tier 2'}, {'degree': 'S.S.C', 'university': 'Royal College', 'tier': 'Tier 2'}]</t>
+          <t>[{'degree': 'PGDBA (MBA HR)', 'university': "Welingkar's College", 'tier': 'Tier 1'}, {'degree': 'Bachelor of Commerce', 'university': 'Royal College', 'tier': 'Tier 2'}, {'degree': 'Higher Secondary Examination', 'university': 'Royal College', 'tier': 'Tier 2'}, {'degree': 'S.S.C', 'university': 'Royal College', 'tier': 'Tier 2'}]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[{'title': 'Manager HR', 'company': 'Max Bupa Health Insurance', 'duration': 'Aug 2019 till date'}, {'title': 'Manager HR', 'company': 'TATA AIG GENERAL INSURANCE Co', 'duration': 'Sept 2017 till July 2019'}, {'title': 'Manager HR', 'company': 'Kotak Mahindra Life Insurance Co', 'duration': 'January 2016 till August 2017'}, {'title': 'Assistant Manager HR', 'company': 'HBL Global Pvt ltd Associate of HDFC Bank Pvt Ltd', 'duration': 'January 2014 till January 2016'}, {'title': '', 'company': 'Boehringer Ingelheim German Based Pharma Co', 'duration': 'December 2011-December 2013'}, {'title': '', 'company': 'STEP Manpower Pvt Ltd', 'duration': 'April 2009-Nov 2011'}]</t>
+          <t>[{'title': 'Manager HR', 'company': 'Max Bupa Health Insurance', 'years': 'Aug 2019 till date', 'location': 'Regional HR'}, {'title': 'Manager HR', 'company': 'TATA AIG GENERAL INSURANCE Co.', 'years': 'Sept 2017 till July 2019', 'location': ''}, {'title': 'Manager HR', 'company': 'Kotak Mahindra Life Insurance Co.', 'years': 'January 2016 till August 2017', 'location': ''}, {'title': 'Assistant Manager HR', 'company': 'HBL Global Pvt ltd (Associate of HDFC Bank Pvt Ltd)', 'years': 'January 2014 till January 2016', 'location': ''}, {'title': '', 'company': 'Boehringer Ingelheim (German Based Pharma Co.)', 'years': 'December 2011-December 2013', 'location': 'Mumbai'}, {'title': '', 'company': 'STEP Manpower Pvt. Ltd.', 'years': 'April 2009-Nov 2011', 'location': 'Mumbai'}]</t>
         </is>
       </c>
     </row>
